--- a/ExcelScore/DEAE_5D.xlsx
+++ b/ExcelScore/DEAE_5D.xlsx
@@ -773,10 +773,10 @@
         <v>1e-14</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1e-14</v>
+        <v>2.8e-14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.1e-13</v>
+        <v>1e-14</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>1e-14</v>
@@ -879,49 +879,49 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>2.1</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>7.4</v>
-      </c>
       <c r="H4" s="4" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="R4" s="5">
         <f>FLOOR(-LOG10(B4),1)</f>
@@ -991,49 +991,49 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>4.3</v>
-      </c>
       <c r="N5" s="4" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="R5" s="5">
         <f>FLOOR(-LOG10(B5),1)</f>
@@ -1215,49 +1215,49 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5.7e-08</v>
+        <v>1.3e-08</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.6e-07</v>
+        <v>4.7e-07</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>5.6e-07</v>
+        <v>3e-07</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>2.1e-06</v>
+        <v>5.6e-08</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>3.6e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="G7" s="4" t="n">
+        <v>3.8e-07</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>9.2e-07</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.7e-06</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>3e-09</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>3.8e-07</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>1.8e-06</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>2.4e-06</v>
+      </c>
+      <c r="O7" s="4" t="n">
         <v>1.8e-07</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>3.1e-06</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>5.1e-07</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>2.2e-07</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>6.9e-07</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>3e-07</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>3.7e-07</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>3e-08</v>
-      </c>
       <c r="P7" s="4" t="n">
-        <v>8.4e-07</v>
+        <v>1.9e-07</v>
       </c>
       <c r="R7" s="5">
         <f>FLOOR(-LOG10(B7),1)</f>
@@ -1327,49 +1327,49 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
+        <v>9.999999999999999e-12</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>7.5e-13</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>3.2e-12</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>4.9e-13</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>7.1e-11</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>3.3e-12</v>
+      </c>
+      <c r="H8" s="4" t="n">
         <v>2.7e-13</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <v>1.3e-11</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>7.5e-12</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.2e-12</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.8e-13</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.2e-11</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.3e-12</v>
-      </c>
       <c r="I8" s="4" t="n">
-        <v>1.3e-12</v>
+        <v>2.9e-13</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.4e-12</v>
+        <v>1.8e-12</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>3.5e-12</v>
+        <v>1.9e-12</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>1.4e-12</v>
+        <v>8.5e-13</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>8.6e-12</v>
+        <v>5.5e-12</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1e-14</v>
+        <v>4.3e-12</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3.2e-12</v>
+        <v>1.1e-13</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>2.6e-11</v>
+        <v>9e-12</v>
       </c>
       <c r="R8" s="5">
         <f>FLOOR(-LOG10(B8),1)</f>
@@ -1439,49 +1439,49 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>5.3e-06</v>
+        <v>1.2e-09</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1.1e-13</v>
+        <v>2.3e-13</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>3.9</v>
+        <v>4e-09</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>1e-14</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>2.4e-11</v>
+        <v>1e-14</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.4e-12</v>
+        <v>4.5e-13</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>1.7e-13</v>
+        <v>5.7e-14</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>5.7e-14</v>
+        <v>3.7e-11</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.600000000000001e-08</v>
+        <v>1.1e-09</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.1e-11</v>
+        <v>1.3e-11</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1.1e-11</v>
+        <v>2.7e-09</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>1e-12</v>
+        <v>2.6e-10</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.3e-10</v>
+        <v>1.1e-12</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.6e-11</v>
+        <v>9.699999999999999e-09</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>9.699999999999999e-12</v>
+        <v>2.7e-10</v>
       </c>
       <c r="R9" s="5">
         <f>FLOOR(-LOG10(B9),1)</f>
@@ -1551,49 +1551,49 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>9.999999999999999e-12</v>
+        <v>3.2e-08</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1.7e-13</v>
+        <v>7.1e-14</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>7.1e-14</v>
+        <v>8.800000000000001e-11</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>2e-12</v>
+        <v>1e-14</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>3.4e-10</v>
+        <v>1.4e-14</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>9.2e-12</v>
+        <v>8.7e-10</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>2.8e-14</v>
+        <v>4.3e-08</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>1.5e-12</v>
+        <v>3.3e-12</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.3e-11</v>
+        <v>1.4e-10</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.7e-10</v>
+        <v>7.6e-10</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5.7e-14</v>
+        <v>2.5e-10</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>3.1e-11</v>
+        <v>1e-14</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1e-14</v>
+        <v>1.1e-12</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>1.2e-10</v>
+        <v>2.1e-14</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>2.5e-12</v>
+        <v>6.4e-08</v>
       </c>
       <c r="R10" s="5">
         <f>FLOOR(-LOG10(B10),1)</f>
@@ -1702,7 +1702,7 @@
         <v>1e-14</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>1.4e-14</v>
+        <v>1e-14</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>1e-14</v>
@@ -1799,13 +1799,13 @@
         <v>1e-14</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>5.7e-14</v>
+        <v>1e-14</v>
       </c>
       <c r="K12" s="4" t="n">
         <v>1e-14</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>1.4e-14</v>
+        <v>1e-14</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>1e-14</v>
@@ -1887,49 +1887,49 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>0.49</v>
+        <v>0.015</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>3.4e-13</v>
+        <v>1.3e-11</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>8.8e-05</v>
+        <v>0.005</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>5.5e-11</v>
+        <v>2.8e-12</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>6.3e-09</v>
+        <v>0.0059</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>0.0019</v>
+        <v>3.4</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>6.6e-06</v>
+        <v>3.6e-12</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>0.00015</v>
+        <v>0.027</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>1.6</v>
+        <v>2.2e-11</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>1.7e-12</v>
+        <v>1.3e-12</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>0.8</v>
+        <v>1.1e-08</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>7.4e-09</v>
+        <v>1.7e-08</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>0.0036</v>
+        <v>1.1e-08</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>0.0018</v>
+        <v>0.12</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>3.8</v>
+        <v>0.75</v>
       </c>
       <c r="R13" s="5">
         <f>FLOOR(-LOG10(B13),1)</f>
@@ -1999,49 +1999,49 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>8e-09</v>
+        <v>2.2e-09</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>3.7e-09</v>
+        <v>2.4e-09</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>2.7e-09</v>
+        <v>1.2e-09</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>5.5e-10</v>
+        <v>9.3e-10</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>2.2e-08</v>
+        <v>3.2e-09</v>
       </c>
       <c r="G14" s="4" t="n">
+        <v>3.6e-09</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>2.5e-10</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>1.3e-08</v>
+      </c>
+      <c r="J14" s="4" t="n">
         <v>1.6e-09</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>5.2e-09</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <v>7.1e-09</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <v>1.4e-09</v>
-      </c>
       <c r="K14" s="4" t="n">
-        <v>3.8e-09</v>
+        <v>2.8e-08</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>2.2e-09</v>
+        <v>3.5e-09</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>8e-09</v>
+        <v>2e-08</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>6e-09</v>
+        <v>3e-09</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>1.6e-09</v>
+        <v>8.3e-10</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>2.4e-09</v>
+        <v>1.6e-08</v>
       </c>
       <c r="R14" s="5">
         <f>FLOOR(-LOG10(B14),1)</f>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>5.7e-14</v>
+        <v>1.4e-14</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>2.8e-14</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>1e-14</v>
+        <v>2.8e-14</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>3.5e-14</v>
@@ -2129,7 +2129,7 @@
         <v>1e-14</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>1.4e-14</v>
+        <v>1e-14</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>1e-14</v>
@@ -2144,16 +2144,16 @@
         <v>1e-14</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>1e-14</v>
+        <v>3.5e-14</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>5.7e-14</v>
+        <v>1e-14</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>2.8e-14</v>
+        <v>1.4e-13</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>1e-14</v>
+        <v>1.9e-14</v>
       </c>
       <c r="R15" s="5">
         <f>FLOOR(-LOG10(B15),1)</f>
@@ -2223,49 +2223,49 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="D16" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M16" s="4" t="n">
         <v>2.6</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L16" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v>3.8</v>
-      </c>
       <c r="N16" s="4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>4.2</v>
+        <v>8.1</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="R16" s="5">
         <f>FLOOR(-LOG10(B16),1)</f>
@@ -2335,49 +2335,49 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="D17" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4" t="n">
         <v>2.8</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v>3</v>
-      </c>
       <c r="F17" s="4" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>0.32</v>
+        <v>0.79</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>5.4</v>
+        <v>0.82</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>0.58</v>
+        <v>1.2</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="R17" s="5">
         <f>FLOOR(-LOG10(B17),1)</f>
@@ -2447,49 +2447,49 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>1.8e-05</v>
+        <v>1.4e-05</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>8.7e-06</v>
+        <v>6.2e-07</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>1.8e-05</v>
+        <v>9.7e-06</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>1.9e-05</v>
+        <v>1.8e-06</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>6.2e-05</v>
+        <v>1.1e-05</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>9.6e-06</v>
+        <v>1.7e-06</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>9.900000000000001e-07</v>
+        <v>2.5e-06</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>1.1e-06</v>
+        <v>6.7e-06</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>7.3e-07</v>
+        <v>9.1e-07</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>1.7e-05</v>
+        <v>2.6e-06</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>1.5e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>7.7e-05</v>
+        <v>4.9e-06</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>8.199999999999999e-06</v>
+        <v>1.4e-06</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>1.5e-05</v>
+        <v>1.1e-05</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>2e-05</v>
+        <v>1.4e-05</v>
       </c>
       <c r="R18" s="5">
         <f>FLOOR(-LOG10(B18),1)</f>
@@ -2559,49 +2559,49 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
+        <v>7.6e-05</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>7.6e-05</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>3.3e-05</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>3.1e-05</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>0.00025</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>7.2e-06</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <v>0.00047</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>5.3e-05</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="N19" s="4" t="n">
         <v>2.2e-05</v>
       </c>
-      <c r="C19" s="4" t="n">
-        <v>2.4e-05</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>2.9e-05</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>1.7e-05</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="G19" s="4" t="n">
-        <v>7.3e-06</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>3.7e-05</v>
-      </c>
-      <c r="I19" s="4" t="n">
-        <v>3.2e-05</v>
-      </c>
-      <c r="J19" s="4" t="n">
-        <v>4.8e-05</v>
-      </c>
-      <c r="K19" s="4" t="n">
-        <v>4.1e-05</v>
-      </c>
-      <c r="L19" s="4" t="n">
-        <v>2e-05</v>
-      </c>
-      <c r="M19" s="4" t="n">
-        <v>0.00044</v>
-      </c>
-      <c r="N19" s="4" t="n">
-        <v>4.4e-05</v>
-      </c>
       <c r="O19" s="4" t="n">
-        <v>0.00058</v>
+        <v>0.00031</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>0.011</v>
+        <v>7.6e-05</v>
       </c>
       <c r="R19" s="5">
         <f>FLOOR(-LOG10(B19),1)</f>
@@ -2671,46 +2671,46 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="I20" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N20" s="4" t="n">
         <v>1.1</v>
       </c>
-      <c r="J20" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K20" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="L20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N20" s="4" t="n">
-        <v>0.7</v>
-      </c>
       <c r="O20" s="4" t="n">
-        <v>0.079</v>
+        <v>0.4</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>1.1</v>
@@ -2783,49 +2783,49 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>1.4</v>
+        <v>0.24</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>0.47</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>1.1</v>
+        <v>1.7e-06</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>0.71</v>
+        <v>0.24</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>0.61</v>
+        <v>0.91</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1.4</v>
+        <v>0.47</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>0.001</v>
+        <v>0.47</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>0.0008</v>
+        <v>0.24</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>0.93</v>
+        <v>2.8e-14</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="R21" s="5">
         <f>FLOOR(-LOG10(B21),1)</f>
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1e-14</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>1e-14</v>
+        <v>1.6</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1e-14</v>
@@ -2916,28 +2916,28 @@
         <v>1e-14</v>
       </c>
       <c r="I22" s="4" t="n">
+        <v>1e-14</v>
+      </c>
+      <c r="J22" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="J22" s="4" t="n">
-        <v>1e-14</v>
-      </c>
       <c r="K22" s="4" t="n">
-        <v>1.6</v>
+        <v>1e-14</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>0.93</v>
+        <v>2.1</v>
       </c>
       <c r="M22" s="4" t="n">
-        <v>0.93</v>
+        <v>1e-14</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>2.8</v>
+        <v>1e-14</v>
       </c>
       <c r="O22" s="4" t="n">
         <v>1e-14</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>1.6</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R22" s="5">
         <f>FLOOR(-LOG10(B22),1)</f>
@@ -3007,19 +3007,19 @@
         </is>
       </c>
       <c r="B23" s="4" t="n">
+        <v>1e-14</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>1e-14</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1e-14</v>
+      </c>
+      <c r="F23" s="4" t="n">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>1e-14</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <v>1e-14</v>
-      </c>
-      <c r="F23" s="4" t="n">
-        <v>1e-14</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>1e-14</v>
@@ -3031,25 +3031,25 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="J23" s="4" t="n">
+        <v>1e-14</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <v>1e-14</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <v>1e-14</v>
+      </c>
+      <c r="M23" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="K23" s="4" t="n">
-        <v>1e-14</v>
-      </c>
-      <c r="L23" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" s="4" t="n">
-        <v>1e-14</v>
-      </c>
       <c r="N23" s="4" t="n">
         <v>1e-14</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>1e-14</v>
+        <v>0.47</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>2</v>
+        <v>1e-14</v>
       </c>
       <c r="R23" s="5">
         <f>FLOOR(-LOG10(B23),1)</f>
@@ -3119,49 +3119,49 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="4" t="n">
         <v>1.4</v>
       </c>
-      <c r="C24" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F24" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G24" s="4" t="n">
+      <c r="J24" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K24" s="4" t="n">
         <v>1.4</v>
-      </c>
-      <c r="H24" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="I24" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K24" s="4" t="n">
-        <v>1.3</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>1.1</v>
       </c>
       <c r="M24" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N24" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O24" s="4" t="n">
         <v>1.1</v>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O24" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P24" s="4" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="R24" s="5">
         <f>FLOOR(-LOG10(B24),1)</f>
@@ -3231,46 +3231,46 @@
         </is>
       </c>
       <c r="B25" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="C25" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D25" s="4" t="n">
+      <c r="G25" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="E25" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F25" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G25" s="4" t="n">
+      <c r="I25" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J25" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="H25" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I25" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J25" s="4" t="n">
-        <v>6</v>
-      </c>
       <c r="K25" s="4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M25" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="N25" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="N25" s="4" t="n">
-        <v>5.5</v>
-      </c>
       <c r="O25" s="4" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>15</v>
